--- a/results/results-linux-2016.xlsx
+++ b/results/results-linux-2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Startup" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Rikard Pavelic</author>
   </authors>
   <commentList>
-    <comment ref="M39" authorId="0">
+    <comment ref="G66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,235 +58,7 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Rikard Pavelic</author>
-  </authors>
-  <commentList>
-    <comment ref="M39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Rikard Pavelic</author>
-  </authors>
-  <commentList>
-    <comment ref="M39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
+with an exception</t>
         </r>
       </text>
     </comment>
@@ -295,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="55">
   <si>
     <t>Serialization</t>
   </si>
@@ -459,7 +231,7 @@
     <t>1.000 LargeObjects.Book</t>
   </si>
   <si>
-    <t>removed</t>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -523,12 +295,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2100,11 +1873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196425984"/>
-        <c:axId val="196628480"/>
+        <c:axId val="225446144"/>
+        <c:axId val="225447936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196425984"/>
+        <c:axId val="225446144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +1886,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196628480"/>
+        <c:crossAx val="225447936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2121,7 +1894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196628480"/>
+        <c:axId val="225447936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +1925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196425984"/>
+        <c:crossAx val="225446144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,6 +1962,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2312,11 +2086,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="234758144"/>
-        <c:axId val="234759680"/>
+        <c:axId val="226776192"/>
+        <c:axId val="226777728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="234758144"/>
+        <c:axId val="226776192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +2099,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234759680"/>
+        <c:crossAx val="226777728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2333,7 +2107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234759680"/>
+        <c:axId val="226777728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,19 +2131,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234758144"/>
+        <c:crossAx val="226776192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2415,6 +2191,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2643,11 +2420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="235784832"/>
-        <c:axId val="235881216"/>
+        <c:axId val="227170560"/>
+        <c:axId val="227229696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235784832"/>
+        <c:axId val="227170560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +2433,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235881216"/>
+        <c:crossAx val="227229696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2664,7 +2441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235881216"/>
+        <c:axId val="227229696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,19 +2465,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235784832"/>
+        <c:crossAx val="227170560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2730,6 +2509,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2853,11 +2633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="236653952"/>
-        <c:axId val="236717568"/>
+        <c:axId val="227262848"/>
+        <c:axId val="227264384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="236653952"/>
+        <c:axId val="227262848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +2646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236717568"/>
+        <c:crossAx val="227264384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2874,7 +2654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236717568"/>
+        <c:axId val="227264384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,19 +2678,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236653952"/>
+        <c:crossAx val="227262848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2956,6 +2738,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3184,11 +2967,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="237354368"/>
-        <c:axId val="237410176"/>
+        <c:axId val="227464704"/>
+        <c:axId val="227466240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="237354368"/>
+        <c:axId val="227464704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +2980,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237410176"/>
+        <c:crossAx val="227466240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +2988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237410176"/>
+        <c:axId val="227466240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,19 +3012,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237354368"/>
+        <c:crossAx val="227464704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3271,6 +3056,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3394,11 +3180,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="237534208"/>
-        <c:axId val="238220032"/>
+        <c:axId val="227478912"/>
+        <c:axId val="227505280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="237534208"/>
+        <c:axId val="227478912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,7 +3193,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238220032"/>
+        <c:crossAx val="227505280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3415,7 +3201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238220032"/>
+        <c:axId val="227505280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,19 +3225,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237534208"/>
+        <c:crossAx val="227478912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3588,7 +3376,7 @@
                   <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>454.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>239.33333333333331</c:v>
@@ -3603,7 +3391,7 @@
                   <c:v>630.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>722.33333333333348</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>822.66666666666674</c:v>
@@ -3693,7 +3481,7 @@
                   <c:v>520.66666666666674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1248.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>421.66666666666657</c:v>
@@ -3708,7 +3496,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>515.99999999999977</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>943.33333333333326</c:v>
@@ -3726,11 +3514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199197440"/>
-        <c:axId val="199198976"/>
+        <c:axId val="227095296"/>
+        <c:axId val="227096832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199197440"/>
+        <c:axId val="227095296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3739,7 +3527,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199198976"/>
+        <c:crossAx val="227096832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3747,7 +3535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199198976"/>
+        <c:axId val="227096832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3778,7 +3566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199197440"/>
+        <c:crossAx val="227095296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3906,7 +3694,7 @@
                   <c:v>11938890</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>11288890</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>10938890</c:v>
@@ -3921,7 +3709,7 @@
                   <c:v>8988890</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>10938890</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>10938890</c:v>
@@ -3939,11 +3727,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199228032"/>
-        <c:axId val="199299456"/>
+        <c:axId val="227121792"/>
+        <c:axId val="227127680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199228032"/>
+        <c:axId val="227121792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,7 +3740,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199299456"/>
+        <c:crossAx val="227127680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3960,7 +3748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199299456"/>
+        <c:axId val="227127680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,7 +3779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199228032"/>
+        <c:crossAx val="227121792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4135,7 +3923,7 @@
                   <c:v>7280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4610.6666666666661</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1476.333333333333</c:v>
@@ -4150,7 +3938,7 @@
                   <c:v>4453.6666666666661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4509</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5944.3333333333339</c:v>
@@ -4240,7 +4028,7 @@
                   <c:v>4864.6666666666679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12203.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2829.3333333333335</c:v>
@@ -4255,7 +4043,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4054</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5571.3333333333321</c:v>
@@ -4273,11 +4061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199684096"/>
-        <c:axId val="199685632"/>
+        <c:axId val="228462592"/>
+        <c:axId val="228464128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199684096"/>
+        <c:axId val="228462592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4286,7 +4074,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199685632"/>
+        <c:crossAx val="228464128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4294,7 +4082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199685632"/>
+        <c:axId val="228464128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4325,7 +4113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199684096"/>
+        <c:crossAx val="228462592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4453,7 +4241,7 @@
                   <c:v>120388890</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>113888890</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>110388890</c:v>
@@ -4468,7 +4256,7 @@
                   <c:v>90888890</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>110388890</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>110388890</c:v>
@@ -4486,11 +4274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199706496"/>
-        <c:axId val="199708032"/>
+        <c:axId val="228484992"/>
+        <c:axId val="228486528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199706496"/>
+        <c:axId val="228484992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,7 +4287,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199708032"/>
+        <c:crossAx val="228486528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4507,7 +4295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199708032"/>
+        <c:axId val="228486528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4538,7 +4326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199706496"/>
+        <c:crossAx val="228484992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4682,7 +4470,7 @@
                   <c:v>70017.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>47567.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>13196.999999999996</c:v>
@@ -4697,7 +4485,7 @@
                   <c:v>42281.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>41569.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>59064</c:v>
@@ -4787,7 +4575,7 @@
                   <c:v>49923.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>121975.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>29201.333333333332</c:v>
@@ -4802,7 +4590,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>40548</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>54358.666666666672</c:v>
@@ -4820,11 +4608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199921024"/>
-        <c:axId val="200049792"/>
+        <c:axId val="228511104"/>
+        <c:axId val="228430976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199921024"/>
+        <c:axId val="228511104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4833,7 +4621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200049792"/>
+        <c:crossAx val="228430976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4841,7 +4629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200049792"/>
+        <c:axId val="228430976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4872,7 +4660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199921024"/>
+        <c:crossAx val="228511104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5033,11 +4821,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206654848"/>
-        <c:axId val="206677504"/>
+        <c:axId val="225485184"/>
+        <c:axId val="225486720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206654848"/>
+        <c:axId val="225485184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5046,7 +4834,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206677504"/>
+        <c:crossAx val="225486720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5054,7 +4842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206677504"/>
+        <c:axId val="225486720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5085,7 +4873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206654848"/>
+        <c:crossAx val="225485184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5213,7 +5001,7 @@
                   <c:v>1213888890</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>1148888890</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>1113888890</c:v>
@@ -5228,7 +5016,7 @@
                   <c:v>918888890</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>1113888890</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>1113888890</c:v>
@@ -5246,11 +5034,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200078848"/>
-        <c:axId val="200080384"/>
+        <c:axId val="229053952"/>
+        <c:axId val="229055488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200078848"/>
+        <c:axId val="229053952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5259,7 +5047,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200080384"/>
+        <c:crossAx val="229055488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5267,7 +5055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200080384"/>
+        <c:axId val="229055488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5298,7 +5086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200078848"/>
+        <c:crossAx val="229053952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5442,7 +5230,7 @@
                   <c:v>346.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>103.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>248.33333333333334</c:v>
@@ -5457,7 +5245,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>284.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>319.33333333333331</c:v>
@@ -5547,7 +5335,7 @@
                   <c:v>228.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>148.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>391.33333333333331</c:v>
@@ -5562,7 +5350,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>316.33333333333331</c:v>
@@ -5580,11 +5368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="203549312"/>
-        <c:axId val="203686272"/>
+        <c:axId val="226568832"/>
+        <c:axId val="226574720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203549312"/>
+        <c:axId val="226568832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5593,7 +5381,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203686272"/>
+        <c:crossAx val="226574720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5601,7 +5389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203686272"/>
+        <c:axId val="226574720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5632,7 +5420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203549312"/>
+        <c:crossAx val="226568832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5760,7 +5548,7 @@
                   <c:v>2249785</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>1788584</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>1763995</c:v>
@@ -5775,7 +5563,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>1763995</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>1763995</c:v>
@@ -5793,11 +5581,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="203727616"/>
-        <c:axId val="203729152"/>
+        <c:axId val="228573952"/>
+        <c:axId val="228575488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203727616"/>
+        <c:axId val="228573952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5806,7 +5594,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203729152"/>
+        <c:crossAx val="228575488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5814,7 +5602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203729152"/>
+        <c:axId val="228575488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,7 +5633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203727616"/>
+        <c:crossAx val="228573952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5989,7 +5777,7 @@
                   <c:v>1488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>637.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>573.33333333333337</c:v>
@@ -6004,7 +5792,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>857.66666666666674</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1317</c:v>
@@ -6094,7 +5882,7 @@
                   <c:v>1052.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1767.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>945.33333333333337</c:v>
@@ -6109,7 +5897,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1281</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1263.3333333333333</c:v>
@@ -6127,11 +5915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204015104"/>
-        <c:axId val="204016640"/>
+        <c:axId val="229508608"/>
+        <c:axId val="229510144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204015104"/>
+        <c:axId val="229508608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6140,7 +5928,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204016640"/>
+        <c:crossAx val="229510144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6148,7 +5936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204016640"/>
+        <c:axId val="229510144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,7 +5967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204015104"/>
+        <c:crossAx val="229508608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6307,7 +6095,7 @@
                   <c:v>23399332</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>18799843</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>18541254</c:v>
@@ -6322,7 +6110,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>18541254</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>18541254</c:v>
@@ -6340,11 +6128,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204041600"/>
-        <c:axId val="204051584"/>
+        <c:axId val="229547392"/>
+        <c:axId val="229553280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204041600"/>
+        <c:axId val="229547392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6353,7 +6141,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204051584"/>
+        <c:crossAx val="229553280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6361,7 +6149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204051584"/>
+        <c:axId val="229553280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6392,7 +6180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204041600"/>
+        <c:crossAx val="229547392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6536,7 +6324,7 @@
                   <c:v>12954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6055.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2080</c:v>
@@ -6551,7 +6339,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5123</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9455</c:v>
@@ -6641,7 +6429,7 @@
                   <c:v>9284.9999999999982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23440</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6771.333333333333</c:v>
@@ -6656,7 +6444,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7166.6666666666661</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9007</c:v>
@@ -6674,11 +6462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204309248"/>
-        <c:axId val="204310784"/>
+        <c:axId val="229823232"/>
+        <c:axId val="229824768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204309248"/>
+        <c:axId val="229823232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6687,7 +6475,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204310784"/>
+        <c:crossAx val="229824768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6695,7 +6483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204310784"/>
+        <c:axId val="229824768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6726,7 +6514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204309248"/>
+        <c:crossAx val="229823232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6854,7 +6642,7 @@
                   <c:v>243056893</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>197074556</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>194475967</c:v>
@@ -6869,7 +6657,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>194475967</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>194475967</c:v>
@@ -6887,11 +6675,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204323456"/>
-        <c:axId val="204349824"/>
+        <c:axId val="230300288"/>
+        <c:axId val="230310272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204323456"/>
+        <c:axId val="230300288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6900,7 +6688,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204349824"/>
+        <c:crossAx val="230310272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6908,7 +6696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204349824"/>
+        <c:axId val="230310272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6939,7 +6727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204323456"/>
+        <c:crossAx val="230300288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7083,7 +6871,7 @@
                   <c:v>4361.6666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2185.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>907.33333333333337</c:v>
@@ -7098,7 +6886,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>914.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2935.6666666666665</c:v>
@@ -7188,7 +6976,7 @@
                   <c:v>3237.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8956.6666666666661</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1891.6666666666667</c:v>
@@ -7203,7 +6991,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2175</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2050.333333333333</c:v>
@@ -7221,11 +7009,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204603392"/>
-        <c:axId val="204604928"/>
+        <c:axId val="230248448"/>
+        <c:axId val="230249984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204603392"/>
+        <c:axId val="230248448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7234,7 +7022,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204604928"/>
+        <c:crossAx val="230249984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7242,7 +7030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204604928"/>
+        <c:axId val="230249984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7273,7 +7061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204603392"/>
+        <c:crossAx val="230248448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7401,7 +7189,7 @@
                   <c:v>84298017</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>78878495</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>73117617</c:v>
@@ -7416,7 +7204,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>73117617</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>73117617</c:v>
@@ -7434,11 +7222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204625792"/>
-        <c:axId val="204627328"/>
+        <c:axId val="230279040"/>
+        <c:axId val="230280576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204625792"/>
+        <c:axId val="230279040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7447,7 +7235,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204627328"/>
+        <c:crossAx val="230280576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7455,7 +7243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204627328"/>
+        <c:axId val="230280576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7486,7 +7274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204625792"/>
+        <c:crossAx val="230279040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7630,7 +7418,7 @@
                   <c:v>42837.333333333328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20907.333333333328</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6603</c:v>
@@ -7645,7 +7433,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7979.3333333333339</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>23914.333333333336</c:v>
@@ -7735,7 +7523,7 @@
                   <c:v>32277.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>88399.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16127.333333333332</c:v>
@@ -7750,7 +7538,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>13580.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>21925.999999999996</c:v>
@@ -7768,11 +7556,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206593024"/>
-        <c:axId val="206619392"/>
+        <c:axId val="228604928"/>
+        <c:axId val="228659968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206593024"/>
+        <c:axId val="228604928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7781,7 +7569,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206619392"/>
+        <c:crossAx val="228659968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7789,7 +7577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206619392"/>
+        <c:axId val="228659968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7820,7 +7608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206593024"/>
+        <c:crossAx val="228604928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7873,6 +7661,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8101,11 +7890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214741760"/>
-        <c:axId val="214743296"/>
+        <c:axId val="225883648"/>
+        <c:axId val="225885184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214741760"/>
+        <c:axId val="225883648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8114,7 +7903,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214743296"/>
+        <c:crossAx val="225885184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8122,7 +7911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214743296"/>
+        <c:axId val="225885184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8146,19 +7935,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214741760"/>
+        <c:crossAx val="225883648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8279,7 +8070,7 @@
                   <c:v>853371117</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>799181775</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>741567117</c:v>
@@ -8294,7 +8085,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>741567117</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>741567117</c:v>
@@ -8312,11 +8103,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206640256"/>
-        <c:axId val="206641792"/>
+        <c:axId val="228689024"/>
+        <c:axId val="228690560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206640256"/>
+        <c:axId val="228689024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8325,7 +8116,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206641792"/>
+        <c:crossAx val="228690560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8333,7 +8124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206641792"/>
+        <c:axId val="228690560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8364,7 +8155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206640256"/>
+        <c:crossAx val="228689024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8508,7 +8299,7 @@
                   <c:v>440149.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>216158.33333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>65513.999999999993</c:v>
@@ -8523,7 +8314,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>73519.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>238497.33333333334</c:v>
@@ -8613,7 +8404,7 @@
                   <c:v>328337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>867790.66666666651</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>164991.66666666666</c:v>
@@ -8628,7 +8419,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>142858.33333333334</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>213874</c:v>
@@ -8646,11 +8437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208141312"/>
-        <c:axId val="208147200"/>
+        <c:axId val="230935552"/>
+        <c:axId val="230941440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208141312"/>
+        <c:axId val="230935552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8659,7 +8450,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208147200"/>
+        <c:crossAx val="230941440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8667,7 +8458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208147200"/>
+        <c:axId val="230941440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8698,7 +8489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208141312"/>
+        <c:crossAx val="230935552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8826,7 +8617,7 @@
                   <c:v>8637702117</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>8095827375</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>7519662117</c:v>
@@ -8841,7 +8632,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>7519662117</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>7519662117</c:v>
@@ -8859,11 +8650,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208180352"/>
-        <c:axId val="208181888"/>
+        <c:axId val="230958208"/>
+        <c:axId val="230959744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208180352"/>
+        <c:axId val="230958208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8872,7 +8663,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208181888"/>
+        <c:crossAx val="230959744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8880,7 +8671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208181888"/>
+        <c:axId val="230959744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8911,7 +8702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208180352"/>
+        <c:crossAx val="230958208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9192,11 +8983,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208472320"/>
-        <c:axId val="208498688"/>
+        <c:axId val="229910784"/>
+        <c:axId val="229953536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208472320"/>
+        <c:axId val="229910784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9205,7 +8996,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208498688"/>
+        <c:crossAx val="229953536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9213,7 +9004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208498688"/>
+        <c:axId val="229953536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9243,7 +9034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208472320"/>
+        <c:crossAx val="229910784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9402,11 +9193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208519552"/>
-        <c:axId val="208521088"/>
+        <c:axId val="230568320"/>
+        <c:axId val="230569856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208519552"/>
+        <c:axId val="230568320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9415,7 +9206,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208521088"/>
+        <c:crossAx val="230569856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9423,7 +9214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208521088"/>
+        <c:axId val="230569856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9453,7 +9244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208519552"/>
+        <c:crossAx val="230568320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9733,11 +9524,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209004032"/>
-        <c:axId val="209005568"/>
+        <c:axId val="232588800"/>
+        <c:axId val="232590336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209004032"/>
+        <c:axId val="232588800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9746,7 +9537,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209005568"/>
+        <c:crossAx val="232590336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9754,7 +9545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209005568"/>
+        <c:axId val="232590336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9784,7 +9575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209004032"/>
+        <c:crossAx val="232588800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9943,11 +9734,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209034624"/>
-        <c:axId val="209048704"/>
+        <c:axId val="232603008"/>
+        <c:axId val="232633472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209034624"/>
+        <c:axId val="232603008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9956,7 +9747,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209048704"/>
+        <c:crossAx val="232633472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9964,7 +9755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209048704"/>
+        <c:axId val="232633472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9994,7 +9785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209034624"/>
+        <c:crossAx val="232603008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10030,6 +9821,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10153,11 +9945,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215198336"/>
-        <c:axId val="215219584"/>
+        <c:axId val="225897856"/>
+        <c:axId val="226178176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215198336"/>
+        <c:axId val="225897856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10166,7 +9958,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215219584"/>
+        <c:crossAx val="226178176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10174,7 +9966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215219584"/>
+        <c:axId val="226178176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10198,19 +9990,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215198336"/>
+        <c:crossAx val="225897856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10256,6 +10050,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10484,11 +10279,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="218105728"/>
-        <c:axId val="218107264"/>
+        <c:axId val="226059008"/>
+        <c:axId val="226060544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218105728"/>
+        <c:axId val="226059008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10497,7 +10292,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218107264"/>
+        <c:crossAx val="226060544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10505,7 +10300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218107264"/>
+        <c:axId val="226060544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10529,19 +10324,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218105728"/>
+        <c:crossAx val="226059008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10571,6 +10368,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10694,11 +10492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="218552576"/>
-        <c:axId val="218841088"/>
+        <c:axId val="226089600"/>
+        <c:axId val="226091392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218552576"/>
+        <c:axId val="226089600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10707,7 +10505,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218841088"/>
+        <c:crossAx val="226091392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10715,7 +10513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218841088"/>
+        <c:axId val="226091392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10739,19 +10537,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218552576"/>
+        <c:crossAx val="226089600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10797,6 +10597,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11025,11 +10826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="219180032"/>
-        <c:axId val="219378432"/>
+        <c:axId val="226430976"/>
+        <c:axId val="226432512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219180032"/>
+        <c:axId val="226430976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11038,7 +10839,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219378432"/>
+        <c:crossAx val="226432512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11046,7 +10847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219378432"/>
+        <c:axId val="226432512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11070,19 +10871,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219180032"/>
+        <c:crossAx val="226430976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11112,6 +10915,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11235,11 +11039,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="220095616"/>
-        <c:axId val="220097536"/>
+        <c:axId val="226461568"/>
+        <c:axId val="226463104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220095616"/>
+        <c:axId val="226461568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11248,7 +11052,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220097536"/>
+        <c:crossAx val="226463104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11256,7 +11060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220097536"/>
+        <c:axId val="226463104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11280,19 +11084,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220095616"/>
+        <c:crossAx val="226461568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11338,6 +11144,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11566,11 +11373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="228315904"/>
-        <c:axId val="228317824"/>
+        <c:axId val="226741248"/>
+        <c:axId val="226743040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228315904"/>
+        <c:axId val="226741248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11579,7 +11386,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228317824"/>
+        <c:crossAx val="226743040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11587,7 +11394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228317824"/>
+        <c:axId val="226743040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11611,19 +11418,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228315904"/>
+        <c:crossAx val="226741248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15815,7 +15624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -16970,7 +16779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17075,7 +16884,7 @@
       </c>
       <c r="H38" s="2">
         <f>AVERAGE(Table57[NetJSON])</f>
-        <v>35209.666666666664</v>
+        <v>35073.333333333336</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table57[Jackson])</f>
@@ -17095,7 +16904,7 @@
       </c>
       <c r="M38" s="2">
         <f>AVERAGE(Table57[Alibaba])</f>
-        <v>23324.666666666668</v>
+        <v>24016.333333333332</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table57[Gson])</f>
@@ -17129,9 +16938,9 @@
         <f>AVERAGE(Table56[Jil]) - G38</f>
         <v>70017.333333333343</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table56[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>47567.333333333336</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table56[Jackson]) - I38</f>
@@ -17149,8 +16958,9 @@
         <f>AVERAGE(Table56[Boon]) - L38</f>
         <v>42281.666666666664</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>54</v>
+      <c r="M39" s="5">
+        <f>AVERAGE(Table56[Alibaba]) - M38</f>
+        <v>41569.666666666672</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table56[Gson]) - N38</f>
@@ -17184,9 +16994,9 @@
         <f t="shared" si="0"/>
         <v>49923.666666666664</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>121975.66666666666</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -17204,9 +17014,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#VALUE!</v>
+        <v>40548</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -17240,9 +17050,9 @@
         <f>AVERAGE(Table58[Jil])</f>
         <v>154616.33333333334</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table58[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>204616.33333333334</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table58[Jackson])</f>
@@ -17260,8 +17070,9 @@
         <f>AVERAGE(Table58[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>54</v>
+      <c r="M41" s="5">
+        <f>AVERAGE(Table58[Alibaba])</f>
+        <v>106134</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table58[Gson])</f>
@@ -17295,9 +17106,9 @@
         <f>AVERAGE(Table56[Jil (size)])</f>
         <v>1213888890</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table56[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>1148888890</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table56[Jackson (size)])</f>
@@ -17315,8 +17126,9 @@
         <f>AVERAGE(Table56[Boon (size)])</f>
         <v>918888890</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>54</v>
+      <c r="M42" s="5">
+        <f>AVERAGE(Table56[Alibaba (size)])</f>
+        <v>1113888890</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table56[Gson (size)])</f>
@@ -17400,9 +17212,9 @@
         <f>DEVSQ(Table56[Jil])</f>
         <v>4423260.666666667</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table56[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>6768084.666666667</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table56[Jackson])</f>
@@ -17422,7 +17234,7 @@
       </c>
       <c r="M47" s="2">
         <f>DEVSQ(Table56[Alibaba])</f>
-        <v>162848</v>
+        <v>569816</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table56[Gson])</f>
@@ -17456,9 +17268,9 @@
         <f>DEVSQ(Table58[Jil])</f>
         <v>3861514.666666667</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table58[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>978752.66666666674</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table58[Jackson])</f>
@@ -17478,7 +17290,7 @@
       </c>
       <c r="M48" s="2">
         <f>DEVSQ(Table58[Alibaba])</f>
-        <v>71223722</v>
+        <v>1806122</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table58[Gson])</f>
@@ -17555,7 +17367,7 @@
         <v>33868</v>
       </c>
       <c r="G52">
-        <v>35603</v>
+        <v>34272</v>
       </c>
       <c r="H52">
         <v>24048</v>
@@ -17570,7 +17382,7 @@
         <v>22804</v>
       </c>
       <c r="L52">
-        <v>23063</v>
+        <v>23866</v>
       </c>
       <c r="M52">
         <v>23152</v>
@@ -17593,7 +17405,7 @@
         <v>35996</v>
       </c>
       <c r="G53">
-        <v>34861</v>
+        <v>34233</v>
       </c>
       <c r="H53">
         <v>24036</v>
@@ -17608,7 +17420,7 @@
         <v>23692</v>
       </c>
       <c r="L53">
-        <v>23892</v>
+        <v>24941</v>
       </c>
       <c r="M53">
         <v>23266</v>
@@ -17631,7 +17443,7 @@
         <v>34162</v>
       </c>
       <c r="G54">
-        <v>35165</v>
+        <v>36715</v>
       </c>
       <c r="H54">
         <v>23594</v>
@@ -17646,7 +17458,7 @@
         <v>23236</v>
       </c>
       <c r="L54">
-        <v>23019</v>
+        <v>23242</v>
       </c>
       <c r="M54">
         <v>23510</v>
@@ -17747,6 +17559,9 @@
       <c r="F58">
         <v>106315</v>
       </c>
+      <c r="G58">
+        <v>82017</v>
+      </c>
       <c r="H58">
         <v>37976</v>
       </c>
@@ -17760,7 +17575,7 @@
         <v>63274</v>
       </c>
       <c r="L58">
-        <v>227647</v>
+        <v>66040</v>
       </c>
       <c r="M58">
         <v>81481</v>
@@ -17780,6 +17595,9 @@
       <c r="R58">
         <v>1213888890</v>
       </c>
+      <c r="S58">
+        <v>1148888890</v>
+      </c>
       <c r="T58">
         <v>1113888890</v>
       </c>
@@ -17793,7 +17611,7 @@
         <v>918888890</v>
       </c>
       <c r="X58">
-        <v>19618329581</v>
+        <v>1113888890</v>
       </c>
       <c r="Y58">
         <v>1113888890</v>
@@ -17815,6 +17633,9 @@
       <c r="F59">
         <v>104369</v>
       </c>
+      <c r="G59">
+        <v>81194</v>
+      </c>
       <c r="H59">
         <v>37101</v>
       </c>
@@ -17828,7 +17649,7 @@
         <v>66702</v>
       </c>
       <c r="L59">
-        <v>227783</v>
+        <v>64998</v>
       </c>
       <c r="M59">
         <v>84526</v>
@@ -17848,6 +17669,9 @@
       <c r="R59">
         <v>1213888890</v>
       </c>
+      <c r="S59">
+        <v>1148888890</v>
+      </c>
       <c r="T59">
         <v>1113888890</v>
       </c>
@@ -17861,7 +17685,7 @@
         <v>918888890</v>
       </c>
       <c r="X59">
-        <v>19618329656</v>
+        <v>1113888890</v>
       </c>
       <c r="Y59">
         <v>1113888890</v>
@@ -17883,6 +17707,9 @@
       <c r="F60">
         <v>103394</v>
       </c>
+      <c r="G60">
+        <v>84711</v>
+      </c>
       <c r="H60">
         <v>36192</v>
       </c>
@@ -17896,7 +17723,7 @@
         <v>66601</v>
       </c>
       <c r="L60">
-        <v>227235</v>
+        <v>65720</v>
       </c>
       <c r="M60">
         <v>81113</v>
@@ -17916,6 +17743,9 @@
       <c r="R60">
         <v>1213888890</v>
       </c>
+      <c r="S60">
+        <v>1148888890</v>
+      </c>
       <c r="T60">
         <v>1113888890</v>
       </c>
@@ -17929,7 +17759,7 @@
         <v>918888890</v>
       </c>
       <c r="X60">
-        <v>19618329731</v>
+        <v>1113888890</v>
       </c>
       <c r="Y60">
         <v>1113888890</v>
@@ -17994,6 +17824,9 @@
       <c r="F64">
         <v>153151</v>
       </c>
+      <c r="G64">
+        <v>203940</v>
+      </c>
       <c r="H64">
         <v>66105</v>
       </c>
@@ -18004,7 +17837,7 @@
         <v>31440</v>
       </c>
       <c r="L64">
-        <v>499526</v>
+        <v>107175</v>
       </c>
       <c r="M64">
         <v>135719</v>
@@ -18026,6 +17859,9 @@
       <c r="F65">
         <v>154783</v>
       </c>
+      <c r="G65">
+        <v>204572</v>
+      </c>
       <c r="H65">
         <v>67144</v>
       </c>
@@ -18036,7 +17872,7 @@
         <v>31736</v>
       </c>
       <c r="L65">
-        <v>507295</v>
+        <v>105914</v>
       </c>
       <c r="M65">
         <v>137533</v>
@@ -18058,6 +17894,9 @@
       <c r="F66">
         <v>155915</v>
       </c>
+      <c r="G66">
+        <v>205337</v>
+      </c>
       <c r="H66">
         <v>65624</v>
       </c>
@@ -18068,7 +17907,7 @@
         <v>31858</v>
       </c>
       <c r="L66">
-        <v>511257</v>
+        <v>105313</v>
       </c>
       <c r="M66">
         <v>136944</v>
@@ -18078,13 +17917,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <tableParts count="5">
+    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18193,9 +18031,9 @@
         <f>AVERAGE(Table62[Jil])</f>
         <v>269.66666666666669</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table62[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>262.66666666666669</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table62[Jackson])</f>
@@ -18213,9 +18051,9 @@
         <f>AVERAGE(Table62[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table62[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table62[Gson])</f>
@@ -18249,9 +18087,9 @@
         <f>AVERAGE(Table61[Jil]) - G38</f>
         <v>346.33333333333331</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table61[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>103.33333333333331</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table61[Jackson]) - I38</f>
@@ -18269,9 +18107,9 @@
         <f>AVERAGE(Table61[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table61[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>284.66666666666669</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table61[Gson]) - N38</f>
@@ -18305,9 +18143,9 @@
         <f t="shared" si="0"/>
         <v>228.66666666666663</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>148.33333333333337</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -18325,9 +18163,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>336</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -18361,9 +18199,9 @@
         <f>AVERAGE(Table63[Jil])</f>
         <v>844.66666666666663</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table63[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>514.33333333333337</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table63[Jackson])</f>
@@ -18381,9 +18219,9 @@
         <f>AVERAGE(Table63[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table63[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>657</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table63[Gson])</f>
@@ -18417,9 +18255,9 @@
         <f>AVERAGE(Table61[Jil (size)])</f>
         <v>2249785</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table61[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>1788584</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table61[Jackson (size)])</f>
@@ -18437,9 +18275,9 @@
         <f>AVERAGE(Table61[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table61[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>1763995</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table61[Gson (size)])</f>
@@ -18523,9 +18361,9 @@
         <f>DEVSQ(Table61[Jil])</f>
         <v>8</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table61[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table61[Jackson])</f>
@@ -18543,9 +18381,9 @@
         <f>DEVSQ(Table61[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table61[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>42</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table61[Gson])</f>
@@ -18579,9 +18417,9 @@
         <f>DEVSQ(Table63[Jil])</f>
         <v>10.666666666666668</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table63[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table63[Jackson])</f>
@@ -18599,9 +18437,9 @@
         <f>DEVSQ(Table63[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table63[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>494</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table63[Gson])</f>
@@ -18677,6 +18515,9 @@
       <c r="F52">
         <v>270</v>
       </c>
+      <c r="G52">
+        <v>264</v>
+      </c>
       <c r="H52">
         <v>38</v>
       </c>
@@ -18685,6 +18526,9 @@
       </c>
       <c r="J52">
         <v>37</v>
+      </c>
+      <c r="L52">
+        <v>36</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -18706,6 +18550,9 @@
       <c r="F53">
         <v>271</v>
       </c>
+      <c r="G53">
+        <v>262</v>
+      </c>
       <c r="H53">
         <v>34</v>
       </c>
@@ -18714,6 +18561,9 @@
       </c>
       <c r="J53">
         <v>32</v>
+      </c>
+      <c r="L53">
+        <v>36</v>
       </c>
       <c r="M53">
         <v>34</v>
@@ -18735,6 +18585,9 @@
       <c r="F54">
         <v>268</v>
       </c>
+      <c r="G54">
+        <v>262</v>
+      </c>
       <c r="H54">
         <v>38</v>
       </c>
@@ -18743,6 +18596,9 @@
       </c>
       <c r="J54">
         <v>38</v>
+      </c>
+      <c r="L54">
+        <v>37</v>
       </c>
       <c r="M54">
         <v>35</v>
@@ -18843,6 +18699,9 @@
       <c r="F58">
         <v>618</v>
       </c>
+      <c r="G58">
+        <v>366</v>
+      </c>
       <c r="H58">
         <v>284</v>
       </c>
@@ -18852,6 +18711,9 @@
       <c r="J58">
         <v>115</v>
       </c>
+      <c r="L58">
+        <v>316</v>
+      </c>
       <c r="M58">
         <v>345</v>
       </c>
@@ -18870,6 +18732,9 @@
       <c r="R58">
         <v>2249785</v>
       </c>
+      <c r="S58">
+        <v>1788584</v>
+      </c>
       <c r="T58">
         <v>1763995</v>
       </c>
@@ -18878,6 +18743,9 @@
       </c>
       <c r="V58">
         <v>654855</v>
+      </c>
+      <c r="X58">
+        <v>1763995</v>
       </c>
       <c r="Y58">
         <v>1763995</v>
@@ -18899,6 +18767,9 @@
       <c r="F59">
         <v>614</v>
       </c>
+      <c r="G59">
+        <v>366</v>
+      </c>
       <c r="H59">
         <v>283</v>
       </c>
@@ -18908,6 +18779,9 @@
       <c r="J59">
         <v>119</v>
       </c>
+      <c r="L59">
+        <v>325</v>
+      </c>
       <c r="M59">
         <v>357</v>
       </c>
@@ -18926,6 +18800,9 @@
       <c r="R59">
         <v>2249785</v>
       </c>
+      <c r="S59">
+        <v>1788584</v>
+      </c>
       <c r="T59">
         <v>1763995</v>
       </c>
@@ -18934,6 +18811,9 @@
       </c>
       <c r="V59">
         <v>654855</v>
+      </c>
+      <c r="X59">
+        <v>1763995</v>
       </c>
       <c r="Y59">
         <v>1763995</v>
@@ -18955,6 +18835,9 @@
       <c r="F60">
         <v>616</v>
       </c>
+      <c r="G60">
+        <v>366</v>
+      </c>
       <c r="H60">
         <v>288</v>
       </c>
@@ -18964,6 +18847,9 @@
       <c r="J60">
         <v>120</v>
       </c>
+      <c r="L60">
+        <v>322</v>
+      </c>
       <c r="M60">
         <v>358</v>
       </c>
@@ -18982,6 +18868,9 @@
       <c r="R60">
         <v>2249785</v>
       </c>
+      <c r="S60">
+        <v>1788584</v>
+      </c>
       <c r="T60">
         <v>1763995</v>
       </c>
@@ -18990,6 +18879,9 @@
       </c>
       <c r="V60">
         <v>654855</v>
+      </c>
+      <c r="X60">
+        <v>1763995</v>
       </c>
       <c r="Y60">
         <v>1763995</v>
@@ -19054,6 +18946,9 @@
       <c r="F64">
         <v>846</v>
       </c>
+      <c r="G64">
+        <v>516</v>
+      </c>
       <c r="H64">
         <v>674</v>
       </c>
@@ -19062,6 +18957,9 @@
       </c>
       <c r="J64">
         <v>189</v>
+      </c>
+      <c r="L64">
+        <v>660</v>
       </c>
       <c r="M64">
         <v>679</v>
@@ -19083,6 +18981,9 @@
       <c r="F65">
         <v>846</v>
       </c>
+      <c r="G65">
+        <v>514</v>
+      </c>
       <c r="H65">
         <v>675</v>
       </c>
@@ -19091,6 +18992,9 @@
       </c>
       <c r="J65">
         <v>193</v>
+      </c>
+      <c r="L65">
+        <v>671</v>
       </c>
       <c r="M65">
         <v>680</v>
@@ -19112,6 +19016,9 @@
       <c r="F66">
         <v>842</v>
       </c>
+      <c r="G66">
+        <v>513</v>
+      </c>
       <c r="H66">
         <v>680</v>
       </c>
@@ -19120,6 +19027,9 @@
       </c>
       <c r="J66">
         <v>194</v>
+      </c>
+      <c r="L66">
+        <v>640</v>
       </c>
       <c r="M66">
         <v>650</v>
@@ -19243,9 +19153,9 @@
         <f>AVERAGE(Table67[Jil])</f>
         <v>391</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table67[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>382</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table67[Jackson])</f>
@@ -19263,9 +19173,9 @@
         <f>AVERAGE(Table67[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table67[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>74.666666666666671</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table67[Gson])</f>
@@ -19299,9 +19209,9 @@
         <f>AVERAGE(Table66[Jil]) - G38</f>
         <v>1488</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table66[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>637.33333333333337</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table66[Jackson]) - I38</f>
@@ -19319,9 +19229,9 @@
         <f>AVERAGE(Table66[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table66[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>857.66666666666674</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table66[Gson]) - N38</f>
@@ -19355,9 +19265,9 @@
         <f t="shared" si="0"/>
         <v>1052.6666666666665</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1767.333333333333</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -19375,9 +19285,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>1281</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -19411,9 +19321,9 @@
         <f>AVERAGE(Table68[Jil])</f>
         <v>2931.6666666666665</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table68[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>2786.6666666666665</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table68[Jackson])</f>
@@ -19431,9 +19341,9 @@
         <f>AVERAGE(Table68[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table68[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>2213.3333333333335</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table68[Gson])</f>
@@ -19467,9 +19377,9 @@
         <f>AVERAGE(Table66[Jil (size)])</f>
         <v>23399332</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table66[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>18799843</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table66[Jackson (size)])</f>
@@ -19487,9 +19397,9 @@
         <f>AVERAGE(Table66[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table66[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>18541254</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table66[Gson (size)])</f>
@@ -19573,9 +19483,9 @@
         <f>DEVSQ(Table66[Jil])</f>
         <v>78</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table66[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>116.66666666666669</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table66[Jackson])</f>
@@ -19593,9 +19503,9 @@
         <f>DEVSQ(Table66[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table66[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>340.66666666666669</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table66[Gson])</f>
@@ -19629,9 +19539,9 @@
         <f>DEVSQ(Table68[Jil])</f>
         <v>1012.6666666666666</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table68[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>944.66666666666663</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table68[Jackson])</f>
@@ -19649,9 +19559,9 @@
         <f>DEVSQ(Table68[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table68[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>548.66666666666663</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table68[Gson])</f>
@@ -19727,6 +19637,9 @@
       <c r="F52">
         <v>399</v>
       </c>
+      <c r="G52">
+        <v>387</v>
+      </c>
       <c r="H52">
         <v>76</v>
       </c>
@@ -19735,6 +19648,9 @@
       </c>
       <c r="J52">
         <v>74</v>
+      </c>
+      <c r="L52">
+        <v>76</v>
       </c>
       <c r="M52">
         <v>70</v>
@@ -19756,6 +19672,9 @@
       <c r="F53">
         <v>385</v>
       </c>
+      <c r="G53">
+        <v>383</v>
+      </c>
       <c r="H53">
         <v>72</v>
       </c>
@@ -19764,6 +19683,9 @@
       </c>
       <c r="J53">
         <v>71</v>
+      </c>
+      <c r="L53">
+        <v>75</v>
       </c>
       <c r="M53">
         <v>72</v>
@@ -19785,6 +19707,9 @@
       <c r="F54">
         <v>389</v>
       </c>
+      <c r="G54">
+        <v>376</v>
+      </c>
       <c r="H54">
         <v>77</v>
       </c>
@@ -19793,6 +19718,9 @@
       </c>
       <c r="J54">
         <v>69</v>
+      </c>
+      <c r="L54">
+        <v>73</v>
       </c>
       <c r="M54">
         <v>70</v>
@@ -19893,6 +19821,9 @@
       <c r="F58">
         <v>1884</v>
       </c>
+      <c r="G58">
+        <v>1021</v>
+      </c>
       <c r="H58">
         <v>664</v>
       </c>
@@ -19902,6 +19833,9 @@
       <c r="J58">
         <v>229</v>
       </c>
+      <c r="L58">
+        <v>920</v>
+      </c>
       <c r="M58">
         <v>1400</v>
       </c>
@@ -19920,6 +19854,9 @@
       <c r="R58">
         <v>23399332</v>
       </c>
+      <c r="S58">
+        <v>18799843</v>
+      </c>
       <c r="T58">
         <v>18541254</v>
       </c>
@@ -19928,6 +19865,9 @@
       </c>
       <c r="V58">
         <v>7091834</v>
+      </c>
+      <c r="X58">
+        <v>18541254</v>
       </c>
       <c r="Y58">
         <v>18541254</v>
@@ -19949,6 +19889,9 @@
       <c r="F59">
         <v>1872</v>
       </c>
+      <c r="G59">
+        <v>1011</v>
+      </c>
       <c r="H59">
         <v>639</v>
       </c>
@@ -19958,6 +19901,9 @@
       <c r="J59">
         <v>237</v>
       </c>
+      <c r="L59">
+        <v>946</v>
+      </c>
       <c r="M59">
         <v>1384</v>
       </c>
@@ -19976,6 +19922,9 @@
       <c r="R59">
         <v>23399332</v>
       </c>
+      <c r="S59">
+        <v>18799843</v>
+      </c>
       <c r="T59">
         <v>18541254</v>
       </c>
@@ -19984,6 +19933,9 @@
       </c>
       <c r="V59">
         <v>7091834</v>
+      </c>
+      <c r="X59">
+        <v>18541254</v>
       </c>
       <c r="Y59">
         <v>18541254</v>
@@ -20005,6 +19957,9 @@
       <c r="F60">
         <v>1881</v>
       </c>
+      <c r="G60">
+        <v>1026</v>
+      </c>
       <c r="H60">
         <v>642</v>
       </c>
@@ -20014,6 +19969,9 @@
       <c r="J60">
         <v>227</v>
       </c>
+      <c r="L60">
+        <v>931</v>
+      </c>
       <c r="M60">
         <v>1379</v>
       </c>
@@ -20032,6 +19990,9 @@
       <c r="R60">
         <v>23399332</v>
       </c>
+      <c r="S60">
+        <v>18799843</v>
+      </c>
       <c r="T60">
         <v>18541254</v>
       </c>
@@ -20040,6 +20001,9 @@
       </c>
       <c r="V60">
         <v>7091834</v>
+      </c>
+      <c r="X60">
+        <v>18541254</v>
       </c>
       <c r="Y60">
         <v>18541254</v>
@@ -20104,6 +20068,9 @@
       <c r="F64">
         <v>2906</v>
       </c>
+      <c r="G64">
+        <v>2762</v>
+      </c>
       <c r="H64">
         <v>1581</v>
       </c>
@@ -20112,6 +20079,9 @@
       </c>
       <c r="J64">
         <v>399</v>
+      </c>
+      <c r="L64">
+        <v>2196</v>
       </c>
       <c r="M64">
         <v>2620</v>
@@ -20133,6 +20103,9 @@
       <c r="F65">
         <v>2948</v>
       </c>
+      <c r="G65">
+        <v>2795</v>
+      </c>
       <c r="H65">
         <v>1574</v>
       </c>
@@ -20141,6 +20114,9 @@
       </c>
       <c r="J65">
         <v>406</v>
+      </c>
+      <c r="L65">
+        <v>2229</v>
       </c>
       <c r="M65">
         <v>2708</v>
@@ -20162,6 +20138,9 @@
       <c r="F66">
         <v>2941</v>
       </c>
+      <c r="G66">
+        <v>2803</v>
+      </c>
       <c r="H66">
         <v>1626</v>
       </c>
@@ -20170,6 +20149,9 @@
       </c>
       <c r="J66">
         <v>403</v>
+      </c>
+      <c r="L66">
+        <v>2215</v>
       </c>
       <c r="M66">
         <v>2625</v>
@@ -20293,9 +20275,9 @@
         <f>AVERAGE(Table72[Jil])</f>
         <v>1631.3333333333333</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table72[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>1680.3333333333333</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table72[Jackson])</f>
@@ -20313,9 +20295,9 @@
         <f>AVERAGE(Table72[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table72[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>226</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table72[Gson])</f>
@@ -20349,9 +20331,9 @@
         <f>AVERAGE(Table71[Jil]) - G38</f>
         <v>12954</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table71[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>6055.666666666667</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table71[Jackson]) - I38</f>
@@ -20369,9 +20351,9 @@
         <f>AVERAGE(Table71[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table71[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>5123</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table71[Gson]) - N38</f>
@@ -20405,9 +20387,9 @@
         <f t="shared" si="0"/>
         <v>9284.9999999999982</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>23440</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -20425,9 +20407,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>7166.6666666666661</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -20461,9 +20443,9 @@
         <f>AVERAGE(Table73[Jil])</f>
         <v>23870.333333333332</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table73[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>31176</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table73[Jackson])</f>
@@ -20481,9 +20463,9 @@
         <f>AVERAGE(Table73[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table73[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>12515.666666666666</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table73[Gson])</f>
@@ -20517,9 +20499,9 @@
         <f>AVERAGE(Table71[Jil (size)])</f>
         <v>243056893</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table71[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>197074556</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table71[Jackson (size)])</f>
@@ -20537,9 +20519,9 @@
         <f>AVERAGE(Table71[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table71[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>194475967</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table71[Gson (size)])</f>
@@ -20623,9 +20605,9 @@
         <f>DEVSQ(Table71[Jil])</f>
         <v>21592.666666666668</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table71[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>9816</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table71[Jackson])</f>
@@ -20643,9 +20625,9 @@
         <f>DEVSQ(Table71[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table71[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>13418</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table71[Gson])</f>
@@ -20679,9 +20661,9 @@
         <f>DEVSQ(Table73[Jil])</f>
         <v>118658.66666666666</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table73[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>38408</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table73[Jackson])</f>
@@ -20699,9 +20681,9 @@
         <f>DEVSQ(Table73[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table73[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>4234.6666666666661</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table73[Gson])</f>
@@ -20777,6 +20759,9 @@
       <c r="F52">
         <v>1646</v>
       </c>
+      <c r="G52">
+        <v>1684</v>
+      </c>
       <c r="H52">
         <v>227</v>
       </c>
@@ -20785,6 +20770,9 @@
       </c>
       <c r="J52">
         <v>218</v>
+      </c>
+      <c r="L52">
+        <v>222</v>
       </c>
       <c r="M52">
         <v>221</v>
@@ -20806,6 +20794,9 @@
       <c r="F53">
         <v>1665</v>
       </c>
+      <c r="G53">
+        <v>1625</v>
+      </c>
       <c r="H53">
         <v>231</v>
       </c>
@@ -20814,6 +20805,9 @@
       </c>
       <c r="J53">
         <v>242</v>
+      </c>
+      <c r="L53">
+        <v>227</v>
       </c>
       <c r="M53">
         <v>229</v>
@@ -20835,6 +20829,9 @@
       <c r="F54">
         <v>1583</v>
       </c>
+      <c r="G54">
+        <v>1732</v>
+      </c>
       <c r="H54">
         <v>224</v>
       </c>
@@ -20843,6 +20840,9 @@
       </c>
       <c r="J54">
         <v>228</v>
+      </c>
+      <c r="L54">
+        <v>229</v>
       </c>
       <c r="M54">
         <v>225</v>
@@ -20943,6 +20943,9 @@
       <c r="F58">
         <v>14674</v>
       </c>
+      <c r="G58">
+        <v>7674</v>
+      </c>
       <c r="H58">
         <v>2333</v>
       </c>
@@ -20952,6 +20955,9 @@
       <c r="J58">
         <v>874</v>
       </c>
+      <c r="L58">
+        <v>5376</v>
+      </c>
       <c r="M58">
         <v>9571</v>
       </c>
@@ -20970,6 +20976,9 @@
       <c r="R58">
         <v>243056893</v>
       </c>
+      <c r="S58">
+        <v>197074556</v>
+      </c>
       <c r="T58">
         <v>194475967</v>
       </c>
@@ -20978,6 +20987,9 @@
       </c>
       <c r="V58">
         <v>74036454</v>
+      </c>
+      <c r="X58">
+        <v>194475967</v>
       </c>
       <c r="Y58">
         <v>194475967</v>
@@ -20999,6 +21011,9 @@
       <c r="F59">
         <v>14471</v>
       </c>
+      <c r="G59">
+        <v>7812</v>
+      </c>
       <c r="H59">
         <v>2288</v>
       </c>
@@ -21008,6 +21023,9 @@
       <c r="J59">
         <v>886</v>
       </c>
+      <c r="L59">
+        <v>5257</v>
+      </c>
       <c r="M59">
         <v>9684</v>
       </c>
@@ -21026,6 +21044,9 @@
       <c r="R59">
         <v>243056893</v>
       </c>
+      <c r="S59">
+        <v>197074556</v>
+      </c>
       <c r="T59">
         <v>194475967</v>
       </c>
@@ -21034,6 +21055,9 @@
       </c>
       <c r="V59">
         <v>74036454</v>
+      </c>
+      <c r="X59">
+        <v>194475967</v>
       </c>
       <c r="Y59">
         <v>194475967</v>
@@ -21055,6 +21079,9 @@
       <c r="F60">
         <v>14611</v>
       </c>
+      <c r="G60">
+        <v>7722</v>
+      </c>
       <c r="H60">
         <v>2301</v>
       </c>
@@ -21064,6 +21091,9 @@
       <c r="J60">
         <v>883</v>
       </c>
+      <c r="L60">
+        <v>5414</v>
+      </c>
       <c r="M60">
         <v>9785</v>
       </c>
@@ -21082,6 +21112,9 @@
       <c r="R60">
         <v>243056893</v>
       </c>
+      <c r="S60">
+        <v>197074556</v>
+      </c>
       <c r="T60">
         <v>194475967</v>
       </c>
@@ -21090,6 +21123,9 @@
       </c>
       <c r="V60">
         <v>74036454</v>
+      </c>
+      <c r="X60">
+        <v>194475967</v>
       </c>
       <c r="Y60">
         <v>194475967</v>
@@ -21154,6 +21190,9 @@
       <c r="F64">
         <v>23851</v>
       </c>
+      <c r="G64">
+        <v>31098</v>
+      </c>
       <c r="H64">
         <v>9064</v>
       </c>
@@ -21162,6 +21201,9 @@
       </c>
       <c r="J64">
         <v>1853</v>
+      </c>
+      <c r="L64">
+        <v>12469</v>
       </c>
       <c r="M64">
         <v>18840</v>
@@ -21183,6 +21225,9 @@
       <c r="F65">
         <v>23637</v>
       </c>
+      <c r="G65">
+        <v>31094</v>
+      </c>
       <c r="H65">
         <v>9393</v>
       </c>
@@ -21191,6 +21236,9 @@
       </c>
       <c r="J65">
         <v>1832</v>
+      </c>
+      <c r="L65">
+        <v>12517</v>
       </c>
       <c r="M65">
         <v>18669</v>
@@ -21212,6 +21260,9 @@
       <c r="F66">
         <v>24123</v>
       </c>
+      <c r="G66">
+        <v>31336</v>
+      </c>
       <c r="H66">
         <v>8779</v>
       </c>
@@ -21220,6 +21271,9 @@
       </c>
       <c r="J66">
         <v>1729</v>
+      </c>
+      <c r="L66">
+        <v>12561</v>
       </c>
       <c r="M66">
         <v>18552</v>
@@ -21240,7 +21294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21343,9 +21397,9 @@
         <f>AVERAGE(Table77[Jil])</f>
         <v>1450.6666666666667</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table77[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>1439.6666666666667</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table77[Jackson])</f>
@@ -21363,9 +21417,9 @@
         <f>AVERAGE(Table77[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table77[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>273</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table77[Gson])</f>
@@ -21399,9 +21453,9 @@
         <f>AVERAGE(Table76[Jil]) - G38</f>
         <v>4361.6666666666661</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table76[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>2185.666666666667</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table76[Jackson]) - I38</f>
@@ -21419,9 +21473,9 @@
         <f>AVERAGE(Table76[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table76[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>914.33333333333326</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table76[Gson]) - N38</f>
@@ -21455,9 +21509,9 @@
         <f t="shared" si="0"/>
         <v>3237.333333333333</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>8956.6666666666661</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -21475,9 +21529,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>2175</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -21511,9 +21565,9 @@
         <f>AVERAGE(Table78[Jil])</f>
         <v>9049.6666666666661</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table78[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>12582</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table78[Jackson])</f>
@@ -21531,9 +21585,9 @@
         <f>AVERAGE(Table78[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table78[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>3362.3333333333335</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table78[Gson])</f>
@@ -21567,9 +21621,9 @@
         <f>AVERAGE(Table76[Jil (size)])</f>
         <v>84298017</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table76[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>78878495</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table76[Jackson (size)])</f>
@@ -21587,9 +21641,9 @@
         <f>AVERAGE(Table76[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table76[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>73117617</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table76[Gson (size)])</f>
@@ -21673,9 +21727,9 @@
         <f>DEVSQ(Table76[Jil])</f>
         <v>16304.666666666668</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table76[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>7764.666666666667</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table76[Jackson])</f>
@@ -21693,9 +21747,9 @@
         <f>DEVSQ(Table76[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table76[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>3378.6666666666665</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table76[Gson])</f>
@@ -21729,9 +21783,9 @@
         <f>DEVSQ(Table78[Jil])</f>
         <v>46572.666666666672</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table78[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>800</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table78[Jackson])</f>
@@ -21749,9 +21803,9 @@
         <f>DEVSQ(Table78[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table78[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>14282.666666666664</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table78[Gson])</f>
@@ -21827,6 +21881,9 @@
       <c r="F52">
         <v>1418</v>
       </c>
+      <c r="G52">
+        <v>1476</v>
+      </c>
       <c r="H52">
         <v>239</v>
       </c>
@@ -21835,6 +21892,9 @@
       </c>
       <c r="J52">
         <v>245</v>
+      </c>
+      <c r="L52">
+        <v>252</v>
       </c>
       <c r="M52">
         <v>245</v>
@@ -21856,6 +21916,9 @@
       <c r="F53">
         <v>1483</v>
       </c>
+      <c r="G53">
+        <v>1462</v>
+      </c>
       <c r="H53">
         <v>242</v>
       </c>
@@ -21864,6 +21927,9 @@
       </c>
       <c r="J53">
         <v>248</v>
+      </c>
+      <c r="L53">
+        <v>249</v>
       </c>
       <c r="M53">
         <v>254</v>
@@ -21885,6 +21951,9 @@
       <c r="F54">
         <v>1451</v>
       </c>
+      <c r="G54">
+        <v>1381</v>
+      </c>
       <c r="H54">
         <v>249</v>
       </c>
@@ -21893,6 +21962,9 @@
       </c>
       <c r="J54">
         <v>246</v>
+      </c>
+      <c r="L54">
+        <v>318</v>
       </c>
       <c r="M54">
         <v>252</v>
@@ -21993,6 +22065,9 @@
       <c r="F58">
         <v>5736</v>
       </c>
+      <c r="G58">
+        <v>3595</v>
+      </c>
       <c r="H58">
         <v>1077</v>
       </c>
@@ -22002,6 +22077,9 @@
       <c r="J58">
         <v>543</v>
       </c>
+      <c r="L58">
+        <v>1230</v>
+      </c>
       <c r="M58">
         <v>3155</v>
       </c>
@@ -22020,6 +22098,9 @@
       <c r="R58">
         <v>84298017</v>
       </c>
+      <c r="S58">
+        <v>78879075</v>
+      </c>
       <c r="T58">
         <v>73117617</v>
       </c>
@@ -22028,6 +22109,9 @@
       </c>
       <c r="V58">
         <v>31184505</v>
+      </c>
+      <c r="X58">
+        <v>73117617</v>
       </c>
       <c r="Y58">
         <v>73117617</v>
@@ -22049,6 +22133,9 @@
       <c r="F59">
         <v>5912</v>
       </c>
+      <c r="G59">
+        <v>3697</v>
+      </c>
       <c r="H59">
         <v>1175</v>
       </c>
@@ -22058,6 +22145,9 @@
       <c r="J59">
         <v>530</v>
       </c>
+      <c r="L59">
+        <v>1148</v>
+      </c>
       <c r="M59">
         <v>3221</v>
       </c>
@@ -22076,6 +22166,9 @@
       <c r="R59">
         <v>84298017</v>
       </c>
+      <c r="S59">
+        <v>78877215</v>
+      </c>
       <c r="T59">
         <v>73117617</v>
       </c>
@@ -22084,6 +22177,9 @@
       </c>
       <c r="V59">
         <v>31184505</v>
+      </c>
+      <c r="X59">
+        <v>73117617</v>
       </c>
       <c r="Y59">
         <v>73117617</v>
@@ -22105,6 +22201,9 @@
       <c r="F60">
         <v>5789</v>
       </c>
+      <c r="G60">
+        <v>3584</v>
+      </c>
       <c r="H60">
         <v>1200</v>
       </c>
@@ -22114,6 +22213,9 @@
       <c r="J60">
         <v>549</v>
       </c>
+      <c r="L60">
+        <v>1184</v>
+      </c>
       <c r="M60">
         <v>3182</v>
       </c>
@@ -22132,6 +22234,9 @@
       <c r="R60">
         <v>84298017</v>
       </c>
+      <c r="S60">
+        <v>78879195</v>
+      </c>
       <c r="T60">
         <v>73117617</v>
       </c>
@@ -22140,6 +22245,9 @@
       </c>
       <c r="V60">
         <v>31184505</v>
+      </c>
+      <c r="X60">
+        <v>73117617</v>
       </c>
       <c r="Y60">
         <v>73117617</v>
@@ -22204,6 +22312,9 @@
       <c r="F64">
         <v>9199</v>
       </c>
+      <c r="G64">
+        <v>12562</v>
+      </c>
       <c r="H64">
         <v>3096</v>
       </c>
@@ -22212,6 +22323,9 @@
       </c>
       <c r="J64">
         <v>893</v>
+      </c>
+      <c r="L64">
+        <v>3265</v>
       </c>
       <c r="M64">
         <v>5305</v>
@@ -22233,6 +22347,9 @@
       <c r="F65">
         <v>9056</v>
       </c>
+      <c r="G65">
+        <v>12602</v>
+      </c>
       <c r="H65">
         <v>3074</v>
       </c>
@@ -22241,6 +22358,9 @@
       </c>
       <c r="J65">
         <v>907</v>
+      </c>
+      <c r="L65">
+        <v>3405</v>
       </c>
       <c r="M65">
         <v>5042</v>
@@ -22262,6 +22382,9 @@
       <c r="F66">
         <v>8894</v>
       </c>
+      <c r="G66" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H66">
         <v>2957</v>
       </c>
@@ -22270,6 +22393,9 @@
       </c>
       <c r="J66">
         <v>834</v>
+      </c>
+      <c r="L66">
+        <v>3417</v>
       </c>
       <c r="M66">
         <v>5362</v>
@@ -22279,12 +22405,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="5">
-    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22393,9 +22520,9 @@
         <f>AVERAGE(Table82[Jil])</f>
         <v>15312.333333333334</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table82[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>14583.333333333334</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table82[Jackson])</f>
@@ -22413,9 +22540,9 @@
         <f>AVERAGE(Table82[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table82[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>1350</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table82[Gson])</f>
@@ -22449,9 +22576,9 @@
         <f>AVERAGE(Table81[Jil]) - G38</f>
         <v>42837.333333333328</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table81[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>20907.333333333328</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table81[Jackson]) - I38</f>
@@ -22469,9 +22596,9 @@
         <f>AVERAGE(Table81[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table81[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>7979.3333333333339</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table81[Gson]) - N38</f>
@@ -22505,9 +22632,9 @@
         <f t="shared" si="0"/>
         <v>32277.666666666664</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>88399.333333333343</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -22525,9 +22652,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>13580.333333333334</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -22561,9 +22688,9 @@
         <f>AVERAGE(Table83[Jil])</f>
         <v>90427.333333333328</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table83[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>123890</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table83[Jackson])</f>
@@ -22581,9 +22708,9 @@
         <f>AVERAGE(Table83[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table83[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>22909.666666666668</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table83[Gson])</f>
@@ -22617,9 +22744,9 @@
         <f>AVERAGE(Table81[Jil (size)])</f>
         <v>853371117</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table81[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>799181775</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table81[Jackson (size)])</f>
@@ -22637,9 +22764,9 @@
         <f>AVERAGE(Table81[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table81[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>741567117</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table81[Gson (size)])</f>
@@ -22723,9 +22850,9 @@
         <f>DEVSQ(Table81[Jil])</f>
         <v>2960024.6666666665</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table81[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>209760.66666666666</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table81[Jackson])</f>
@@ -22743,9 +22870,9 @@
         <f>DEVSQ(Table81[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table81[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>856114.66666666674</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table81[Gson])</f>
@@ -22779,9 +22906,9 @@
         <f>DEVSQ(Table83[Jil])</f>
         <v>5171824.666666666</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table83[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>905888</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table83[Jackson])</f>
@@ -22799,9 +22926,9 @@
         <f>DEVSQ(Table83[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table83[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>344608.66666666669</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table83[Gson])</f>
@@ -22877,6 +23004,9 @@
       <c r="F52">
         <v>15737</v>
       </c>
+      <c r="G52">
+        <v>15316</v>
+      </c>
       <c r="H52">
         <v>1339</v>
       </c>
@@ -22885,6 +23015,9 @@
       </c>
       <c r="J52">
         <v>1381</v>
+      </c>
+      <c r="L52">
+        <v>1350</v>
       </c>
       <c r="M52">
         <v>1358</v>
@@ -22906,6 +23039,9 @@
       <c r="F53">
         <v>15214</v>
       </c>
+      <c r="G53">
+        <v>14007</v>
+      </c>
       <c r="H53">
         <v>1364</v>
       </c>
@@ -22914,6 +23050,9 @@
       </c>
       <c r="J53">
         <v>1333</v>
+      </c>
+      <c r="L53">
+        <v>1345</v>
       </c>
       <c r="M53">
         <v>1329</v>
@@ -22935,6 +23074,9 @@
       <c r="F54">
         <v>14986</v>
       </c>
+      <c r="G54">
+        <v>14427</v>
+      </c>
       <c r="H54">
         <v>1362</v>
       </c>
@@ -22943,6 +23085,9 @@
       </c>
       <c r="J54">
         <v>1360</v>
+      </c>
+      <c r="L54">
+        <v>1355</v>
       </c>
       <c r="M54">
         <v>1343</v>
@@ -23043,6 +23188,9 @@
       <c r="F58">
         <v>56781</v>
       </c>
+      <c r="G58">
+        <v>35197</v>
+      </c>
       <c r="H58">
         <v>8004</v>
       </c>
@@ -23052,6 +23200,9 @@
       <c r="J58">
         <v>3231</v>
       </c>
+      <c r="L58">
+        <v>8764</v>
+      </c>
       <c r="M58">
         <v>25166</v>
       </c>
@@ -23070,6 +23221,9 @@
       <c r="R58">
         <v>853371117</v>
       </c>
+      <c r="S58">
+        <v>799187975</v>
+      </c>
       <c r="T58">
         <v>741567117</v>
       </c>
@@ -23078,6 +23232,9 @@
       </c>
       <c r="V58">
         <v>322172245</v>
+      </c>
+      <c r="X58">
+        <v>741567117</v>
       </c>
       <c r="Y58">
         <v>741567117</v>
@@ -23099,6 +23256,9 @@
       <c r="F59">
         <v>58560</v>
       </c>
+      <c r="G59">
+        <v>35437</v>
+      </c>
       <c r="H59">
         <v>7968</v>
       </c>
@@ -23108,6 +23268,9 @@
       <c r="J59">
         <v>3245</v>
       </c>
+      <c r="L59">
+        <v>10046</v>
+      </c>
       <c r="M59">
         <v>26048</v>
       </c>
@@ -23126,6 +23289,9 @@
       <c r="R59">
         <v>853371117</v>
       </c>
+      <c r="S59">
+        <v>799185975</v>
+      </c>
       <c r="T59">
         <v>741567117</v>
       </c>
@@ -23134,6 +23300,9 @@
       </c>
       <c r="V59">
         <v>322172245</v>
+      </c>
+      <c r="X59">
+        <v>741567117</v>
       </c>
       <c r="Y59">
         <v>741567117</v>
@@ -23155,6 +23324,9 @@
       <c r="F60">
         <v>59108</v>
       </c>
+      <c r="G60">
+        <v>35838</v>
+      </c>
       <c r="H60">
         <v>7902</v>
       </c>
@@ -23164,6 +23336,9 @@
       <c r="J60">
         <v>3264</v>
       </c>
+      <c r="L60">
+        <v>9178</v>
+      </c>
       <c r="M60">
         <v>24559</v>
       </c>
@@ -23182,6 +23357,9 @@
       <c r="R60">
         <v>853371117</v>
       </c>
+      <c r="S60">
+        <v>799171375</v>
+      </c>
       <c r="T60">
         <v>741567117</v>
       </c>
@@ -23190,6 +23368,9 @@
       </c>
       <c r="V60">
         <v>322172245</v>
+      </c>
+      <c r="X60">
+        <v>741567117</v>
       </c>
       <c r="Y60">
         <v>741567117</v>
@@ -23254,6 +23435,9 @@
       <c r="F64">
         <v>92212</v>
       </c>
+      <c r="G64">
+        <v>124622</v>
+      </c>
       <c r="H64">
         <v>23712</v>
       </c>
@@ -23262,6 +23446,9 @@
       </c>
       <c r="J64">
         <v>5943</v>
+      </c>
+      <c r="L64">
+        <v>22788</v>
       </c>
       <c r="M64">
         <v>45882</v>
@@ -23283,6 +23470,9 @@
       <c r="F65">
         <v>89091</v>
       </c>
+      <c r="G65">
+        <v>123750</v>
+      </c>
       <c r="H65">
         <v>24334</v>
       </c>
@@ -23291,6 +23481,9 @@
       </c>
       <c r="J65">
         <v>5855</v>
+      </c>
+      <c r="L65">
+        <v>22569</v>
       </c>
       <c r="M65">
         <v>46275</v>
@@ -23312,6 +23505,9 @@
       <c r="F66">
         <v>89979</v>
       </c>
+      <c r="G66">
+        <v>123298</v>
+      </c>
       <c r="H66">
         <v>24210</v>
       </c>
@@ -23320,6 +23516,9 @@
       </c>
       <c r="J66">
         <v>5862</v>
+      </c>
+      <c r="L66">
+        <v>23372</v>
       </c>
       <c r="M66">
         <v>49394</v>
@@ -23343,7 +23542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -23443,9 +23642,9 @@
         <f>AVERAGE(Table87[Jil])</f>
         <v>139288.33333333334</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table87[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>149700.33333333334</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table87[Jackson])</f>
@@ -23463,9 +23662,9 @@
         <f>AVERAGE(Table87[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table87[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>11508.333333333334</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table87[Gson])</f>
@@ -23499,9 +23698,9 @@
         <f>AVERAGE(Table86[Jil]) - G38</f>
         <v>440149.33333333326</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table86[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>216158.33333333334</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table86[Jackson]) - I38</f>
@@ -23519,9 +23718,9 @@
         <f>AVERAGE(Table86[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table86[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>73519.666666666672</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table86[Gson]) - N38</f>
@@ -23555,9 +23754,9 @@
         <f t="shared" si="0"/>
         <v>328337</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>867790.66666666651</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -23575,9 +23774,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>142858.33333333334</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -23611,9 +23810,9 @@
         <f>AVERAGE(Table88[Jil])</f>
         <v>907774.66666666663</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table88[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>1233649.3333333333</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table88[Jackson])</f>
@@ -23631,9 +23830,9 @@
         <f>AVERAGE(Table88[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table88[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>227886.33333333334</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table88[Gson])</f>
@@ -23667,9 +23866,9 @@
         <f>AVERAGE(Table86[Jil (size)])</f>
         <v>8637702117</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table86[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>8095827375</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table86[Jackson (size)])</f>
@@ -23687,9 +23886,9 @@
         <f>AVERAGE(Table86[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table86[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>7519662117</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table86[Gson (size)])</f>
@@ -23773,9 +23972,9 @@
         <f>DEVSQ(Table86[Jil])</f>
         <v>46367920.666666672</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table86[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>320625820.66666669</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table86[Jackson])</f>
@@ -23793,9 +23992,9 @@
         <f>DEVSQ(Table86[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table86[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>1629554</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table86[Gson])</f>
@@ -23829,9 +24028,9 @@
         <f>DEVSQ(Table88[Jil])</f>
         <v>1539632980.6666667</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table88[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>260675018.66666669</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table88[Jackson])</f>
@@ -23849,9 +24048,9 @@
         <f>DEVSQ(Table88[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table88[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>64541192.666666664</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table88[Gson])</f>
@@ -23927,6 +24126,9 @@
       <c r="F52">
         <v>135172</v>
       </c>
+      <c r="G52">
+        <v>160251</v>
+      </c>
       <c r="H52">
         <v>11505</v>
       </c>
@@ -23935,6 +24137,9 @@
       </c>
       <c r="J52">
         <v>11364</v>
+      </c>
+      <c r="L52">
+        <v>11586</v>
       </c>
       <c r="M52">
         <v>11582</v>
@@ -23956,6 +24161,9 @@
       <c r="F53">
         <v>139919</v>
       </c>
+      <c r="G53">
+        <v>150813</v>
+      </c>
       <c r="H53">
         <v>11531</v>
       </c>
@@ -23964,6 +24172,9 @@
       </c>
       <c r="J53">
         <v>11333</v>
+      </c>
+      <c r="L53">
+        <v>11545</v>
       </c>
       <c r="M53">
         <v>11157</v>
@@ -23985,6 +24196,9 @@
       <c r="F54">
         <v>142774</v>
       </c>
+      <c r="G54">
+        <v>138037</v>
+      </c>
       <c r="H54">
         <v>11552</v>
       </c>
@@ -23993,6 +24207,9 @@
       </c>
       <c r="J54">
         <v>11251</v>
+      </c>
+      <c r="L54">
+        <v>11394</v>
       </c>
       <c r="M54">
         <v>11124</v>
@@ -24093,6 +24310,9 @@
       <c r="F58">
         <v>577194</v>
       </c>
+      <c r="G58">
+        <v>362623</v>
+      </c>
       <c r="H58">
         <v>76569</v>
       </c>
@@ -24102,6 +24322,9 @@
       <c r="J58">
         <v>30001</v>
       </c>
+      <c r="L58">
+        <v>84645</v>
+      </c>
       <c r="M58">
         <v>245295</v>
       </c>
@@ -24120,6 +24343,9 @@
       <c r="R58">
         <v>8637702117</v>
       </c>
+      <c r="S58">
+        <v>8095733375</v>
+      </c>
       <c r="T58">
         <v>7519662117</v>
       </c>
@@ -24128,6 +24354,9 @@
       </c>
       <c r="V58">
         <v>3323159245</v>
+      </c>
+      <c r="X58">
+        <v>7519662117</v>
       </c>
       <c r="Y58">
         <v>7519662117</v>
@@ -24149,6 +24378,9 @@
       <c r="F59">
         <v>576154</v>
       </c>
+      <c r="G59">
+        <v>379824</v>
+      </c>
       <c r="H59">
         <v>75508</v>
       </c>
@@ -24158,6 +24390,9 @@
       <c r="J59">
         <v>29510</v>
       </c>
+      <c r="L59">
+        <v>84380</v>
+      </c>
       <c r="M59">
         <v>252568</v>
       </c>
@@ -24176,6 +24411,9 @@
       <c r="R59">
         <v>8637702117</v>
       </c>
+      <c r="S59">
+        <v>8095811375</v>
+      </c>
       <c r="T59">
         <v>7519662117</v>
       </c>
@@ -24184,6 +24422,9 @@
       </c>
       <c r="V59">
         <v>3323159245</v>
+      </c>
+      <c r="X59">
+        <v>7519662117</v>
       </c>
       <c r="Y59">
         <v>7519662117</v>
@@ -24205,6 +24446,9 @@
       <c r="F60">
         <v>584965</v>
       </c>
+      <c r="G60">
+        <v>355129</v>
+      </c>
       <c r="H60">
         <v>79053</v>
       </c>
@@ -24214,6 +24458,9 @@
       <c r="J60">
         <v>29068</v>
       </c>
+      <c r="L60">
+        <v>86059</v>
+      </c>
       <c r="M60">
         <v>251492</v>
       </c>
@@ -24232,6 +24479,9 @@
       <c r="R60">
         <v>8637702117</v>
       </c>
+      <c r="S60">
+        <v>8095937375</v>
+      </c>
       <c r="T60">
         <v>7519662117</v>
       </c>
@@ -24240,6 +24490,9 @@
       </c>
       <c r="V60">
         <v>3323159245</v>
+      </c>
+      <c r="X60">
+        <v>7519662117</v>
       </c>
       <c r="Y60">
         <v>7519662117</v>
@@ -24304,6 +24557,9 @@
       <c r="F64">
         <v>929759</v>
       </c>
+      <c r="G64">
+        <v>1227080</v>
+      </c>
       <c r="H64">
         <v>242124</v>
       </c>
@@ -24312,6 +24568,9 @@
       </c>
       <c r="J64">
         <v>53605</v>
+      </c>
+      <c r="L64">
+        <v>234412</v>
       </c>
       <c r="M64">
         <v>457259</v>
@@ -24333,6 +24592,9 @@
       <c r="F65">
         <v>876600</v>
       </c>
+      <c r="G65">
+        <v>1246832</v>
+      </c>
       <c r="H65">
         <v>239172</v>
       </c>
@@ -24341,6 +24603,9 @@
       </c>
       <c r="J65">
         <v>56023</v>
+      </c>
+      <c r="L65">
+        <v>224047</v>
       </c>
       <c r="M65">
         <v>473875</v>
@@ -24362,6 +24627,9 @@
       <c r="F66">
         <v>916965</v>
       </c>
+      <c r="G66">
+        <v>1227036</v>
+      </c>
       <c r="H66">
         <v>244809</v>
       </c>
@@ -24370,6 +24638,9 @@
       </c>
       <c r="J66">
         <v>54600</v>
+      </c>
+      <c r="L66">
+        <v>225200</v>
       </c>
       <c r="M66">
         <v>459843</v>
@@ -33222,7 +33493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33327,7 +33598,7 @@
       </c>
       <c r="H38" s="2">
         <f>AVERAGE(Table47[NetJSON])</f>
-        <v>357.33333333333331</v>
+        <v>364</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table47[Jackson])</f>
@@ -33347,7 +33618,7 @@
       </c>
       <c r="M38" s="2">
         <f>AVERAGE(Table47[Alibaba])</f>
-        <v>370.66666666666669</v>
+        <v>362.66666666666669</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table47[Gson])</f>
@@ -33381,9 +33652,9 @@
         <f>AVERAGE(Table46[Jil]) - G38</f>
         <v>715</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table46[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>454.33333333333337</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table46[Jackson]) - I38</f>
@@ -33401,8 +33672,9 @@
         <f>AVERAGE(Table46[Boon]) - L38</f>
         <v>630.66666666666663</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>54</v>
+      <c r="M39" s="5">
+        <f>AVERAGE(Table46[Alibaba]) - J38</f>
+        <v>722.33333333333348</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table46[Gson]) - N38</f>
@@ -33436,9 +33708,9 @@
         <f t="shared" si="0"/>
         <v>520.66666666666674</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1248.333333333333</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -33456,9 +33728,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#VALUE!</v>
+        <v>515.99999999999977</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -33492,9 +33764,9 @@
         <f>AVERAGE(Table48[Jil])</f>
         <v>1596</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table48[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>2066.6666666666665</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table48[Jackson])</f>
@@ -33512,8 +33784,9 @@
         <f>AVERAGE(Table48[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>54</v>
+      <c r="M41" s="5">
+        <f>AVERAGE(Table48[Alibaba])</f>
+        <v>1601</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table48[Gson])</f>
@@ -33547,9 +33820,9 @@
         <f>AVERAGE(Table46[Jil (size)])</f>
         <v>11938890</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table46[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>11288890</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table46[Jackson (size)])</f>
@@ -33567,8 +33840,9 @@
         <f>AVERAGE(Table46[Boon (size)])</f>
         <v>8988890</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>54</v>
+      <c r="M42" s="5">
+        <f>AVERAGE(Table46[Alibaba (size)])</f>
+        <v>10938890</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table46[Gson (size)])</f>
@@ -33652,9 +33926,9 @@
         <f>DEVSQ(Table46[Jil])</f>
         <v>480.66666666666663</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table46[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>372.66666666666669</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table46[Jackson])</f>
@@ -33674,7 +33948,7 @@
       </c>
       <c r="M47" s="2">
         <f>DEVSQ(Table46[Alibaba])</f>
-        <v>3428.666666666667</v>
+        <v>6948.6666666666661</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table46[Gson])</f>
@@ -33708,9 +33982,9 @@
         <f>DEVSQ(Table48[Jil])</f>
         <v>806</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table48[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>258.66666666666663</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table48[Jackson])</f>
@@ -33730,7 +34004,7 @@
       </c>
       <c r="M48" s="2">
         <f>DEVSQ(Table48[Alibaba])</f>
-        <v>19984.666666666668</v>
+        <v>18902</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table48[Gson])</f>
@@ -33807,7 +34081,7 @@
         <v>365</v>
       </c>
       <c r="G52">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="H52">
         <v>352</v>
@@ -33822,7 +34096,7 @@
         <v>368</v>
       </c>
       <c r="L52">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M52">
         <v>355</v>
@@ -33845,7 +34119,7 @@
         <v>363</v>
       </c>
       <c r="G53">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H53">
         <v>356</v>
@@ -33860,7 +34134,7 @@
         <v>371</v>
       </c>
       <c r="L53">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M53">
         <v>370</v>
@@ -33883,7 +34157,7 @@
         <v>353</v>
       </c>
       <c r="G54">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H54">
         <v>362</v>
@@ -33898,7 +34172,7 @@
         <v>368</v>
       </c>
       <c r="L54">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="M54">
         <v>358</v>
@@ -33999,6 +34273,9 @@
       <c r="F58">
         <v>1060</v>
       </c>
+      <c r="G58">
+        <v>834</v>
+      </c>
       <c r="H58">
         <v>580</v>
       </c>
@@ -34012,7 +34289,7 @@
         <v>992</v>
       </c>
       <c r="L58">
-        <v>3072</v>
+        <v>1099</v>
       </c>
       <c r="M58">
         <v>1183</v>
@@ -34032,6 +34309,9 @@
       <c r="R58">
         <v>11938890</v>
       </c>
+      <c r="S58">
+        <v>11288890</v>
+      </c>
       <c r="T58">
         <v>10938890</v>
       </c>
@@ -34045,7 +34325,7 @@
         <v>8988890</v>
       </c>
       <c r="X58">
-        <v>195981599</v>
+        <v>10938890</v>
       </c>
       <c r="Y58">
         <v>10938890</v>
@@ -34067,6 +34347,9 @@
       <c r="F59">
         <v>1075</v>
       </c>
+      <c r="G59">
+        <v>812</v>
+      </c>
       <c r="H59">
         <v>594</v>
       </c>
@@ -34080,7 +34363,7 @@
         <v>994</v>
       </c>
       <c r="L59">
-        <v>2990</v>
+        <v>1016</v>
       </c>
       <c r="M59">
         <v>1229</v>
@@ -34100,6 +34383,9 @@
       <c r="R59">
         <v>11938890</v>
       </c>
+      <c r="S59">
+        <v>11288890</v>
+      </c>
       <c r="T59">
         <v>10938890</v>
       </c>
@@ -34113,7 +34399,7 @@
         <v>8988890</v>
       </c>
       <c r="X59">
-        <v>195981599</v>
+        <v>10938890</v>
       </c>
       <c r="Y59">
         <v>10938890</v>
@@ -34135,6 +34421,9 @@
       <c r="F60">
         <v>1091</v>
       </c>
+      <c r="G60">
+        <v>809</v>
+      </c>
       <c r="H60">
         <v>614</v>
       </c>
@@ -34148,7 +34437,7 @@
         <v>1013</v>
       </c>
       <c r="L60">
-        <v>3041</v>
+        <v>1130</v>
       </c>
       <c r="M60">
         <v>1139</v>
@@ -34168,6 +34457,9 @@
       <c r="R60">
         <v>11938890</v>
       </c>
+      <c r="S60">
+        <v>11288890</v>
+      </c>
       <c r="T60">
         <v>10938890</v>
       </c>
@@ -34181,7 +34473,7 @@
         <v>8988890</v>
       </c>
       <c r="X60">
-        <v>195981599</v>
+        <v>10938890</v>
       </c>
       <c r="Y60">
         <v>10938890</v>
@@ -34246,6 +34538,9 @@
       <c r="F64">
         <v>1605</v>
       </c>
+      <c r="G64">
+        <v>2076</v>
+      </c>
       <c r="H64">
         <v>1012</v>
       </c>
@@ -34256,7 +34551,7 @@
         <v>560</v>
       </c>
       <c r="L64">
-        <v>6222</v>
+        <v>1516</v>
       </c>
       <c r="M64">
         <v>2022</v>
@@ -34278,6 +34573,9 @@
       <c r="F65">
         <v>1573</v>
       </c>
+      <c r="G65">
+        <v>2054</v>
+      </c>
       <c r="H65">
         <v>1010</v>
       </c>
@@ -34288,7 +34586,7 @@
         <v>534</v>
       </c>
       <c r="L65">
-        <v>6350</v>
+        <v>1580</v>
       </c>
       <c r="M65">
         <v>2171</v>
@@ -34310,6 +34608,9 @@
       <c r="F66">
         <v>1610</v>
       </c>
+      <c r="G66">
+        <v>2070</v>
+      </c>
       <c r="H66">
         <v>1031</v>
       </c>
@@ -34320,7 +34621,7 @@
         <v>558</v>
       </c>
       <c r="L66">
-        <v>6153</v>
+        <v>1707</v>
       </c>
       <c r="M66">
         <v>2188</v>
@@ -34330,19 +34631,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <tableParts count="5">
+    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34447,7 +34747,7 @@
       </c>
       <c r="H38" s="2">
         <f>AVERAGE(Table52[NetJSON])</f>
-        <v>3513.6666666666665</v>
+        <v>3522.6666666666665</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table52[Jackson])</f>
@@ -34467,7 +34767,7 @@
       </c>
       <c r="M38" s="2">
         <f>AVERAGE(Table52[Alibaba])</f>
-        <v>2503</v>
+        <v>2484</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table52[Gson])</f>
@@ -34501,9 +34801,9 @@
         <f>AVERAGE(Table51[Jil]) - G38</f>
         <v>7280</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table51[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>4610.6666666666661</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table51[Jackson]) - I38</f>
@@ -34521,8 +34821,9 @@
         <f>AVERAGE(Table51[Boon]) - L38</f>
         <v>4453.6666666666661</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>54</v>
+      <c r="M39" s="5">
+        <f>AVERAGE(Table51[Alibaba]) - M38</f>
+        <v>4509</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table51[Gson]) - N38</f>
@@ -34556,9 +34857,9 @@
         <f t="shared" si="0"/>
         <v>4864.6666666666679</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>12203.333333333336</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -34576,9 +34877,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#VALUE!</v>
+        <v>4054</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -34612,9 +34913,9 @@
         <f>AVERAGE(Table53[Jil])</f>
         <v>15500.333333333334</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table53[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>20336.666666666668</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table53[Jackson])</f>
@@ -34632,8 +34933,9 @@
         <f>AVERAGE(Table53[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>54</v>
+      <c r="M41" s="5">
+        <f>AVERAGE(Table53[Alibaba])</f>
+        <v>11047</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table53[Gson])</f>
@@ -34667,9 +34969,9 @@
         <f>AVERAGE(Table51[Jil (size)])</f>
         <v>120388890</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table51[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>113888890</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table51[Jackson (size)])</f>
@@ -34687,8 +34989,9 @@
         <f>AVERAGE(Table51[Boon (size)])</f>
         <v>90888890</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>54</v>
+      <c r="M42" s="5">
+        <f>AVERAGE(Table51[Alibaba (size)])</f>
+        <v>110388890</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table51[Gson (size)])</f>
@@ -34772,9 +35075,9 @@
         <f>DEVSQ(Table51[Jil])</f>
         <v>4428.6666666666661</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table51[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>5772.6666666666661</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table51[Jackson])</f>
@@ -34794,7 +35097,7 @@
       </c>
       <c r="M47" s="2">
         <f>DEVSQ(Table51[Alibaba])</f>
-        <v>278306</v>
+        <v>74606</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table51[Gson])</f>
@@ -34828,9 +35131,9 @@
         <f>DEVSQ(Table53[Jil])</f>
         <v>38060.666666666664</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table53[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>10404.666666666668</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table53[Jackson])</f>
@@ -34850,7 +35153,7 @@
       </c>
       <c r="M48" s="2">
         <f>DEVSQ(Table53[Alibaba])</f>
-        <v>392382</v>
+        <v>232466</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table53[Gson])</f>
@@ -34927,7 +35230,7 @@
         <v>3350</v>
       </c>
       <c r="G52">
-        <v>3532</v>
+        <v>3537</v>
       </c>
       <c r="H52">
         <v>2509</v>
@@ -34942,7 +35245,7 @@
         <v>2449</v>
       </c>
       <c r="L52">
-        <v>2521</v>
+        <v>2485</v>
       </c>
       <c r="M52">
         <v>2448</v>
@@ -34965,7 +35268,7 @@
         <v>3440</v>
       </c>
       <c r="G53">
-        <v>3430</v>
+        <v>3534</v>
       </c>
       <c r="H53">
         <v>2491</v>
@@ -34980,7 +35283,7 @@
         <v>2464</v>
       </c>
       <c r="L53">
-        <v>2439</v>
+        <v>2504</v>
       </c>
       <c r="M53">
         <v>2537</v>
@@ -35003,7 +35306,7 @@
         <v>3277</v>
       </c>
       <c r="G54">
-        <v>3579</v>
+        <v>3497</v>
       </c>
       <c r="H54">
         <v>2456</v>
@@ -35018,7 +35321,7 @@
         <v>2486</v>
       </c>
       <c r="L54">
-        <v>2549</v>
+        <v>2463</v>
       </c>
       <c r="M54">
         <v>2500</v>
@@ -35119,6 +35422,9 @@
       <c r="F58">
         <v>10644</v>
       </c>
+      <c r="G58">
+        <v>8176</v>
+      </c>
       <c r="H58">
         <v>3958</v>
       </c>
@@ -35132,7 +35438,7 @@
         <v>6949</v>
       </c>
       <c r="L58">
-        <v>23275</v>
+        <v>7139</v>
       </c>
       <c r="M58">
         <v>8567</v>
@@ -35152,6 +35458,9 @@
       <c r="R58">
         <v>120388890</v>
       </c>
+      <c r="S58">
+        <v>113888890</v>
+      </c>
       <c r="T58">
         <v>110388890</v>
       </c>
@@ -35165,7 +35474,7 @@
         <v>90888890</v>
       </c>
       <c r="X58">
-        <v>1960897580</v>
+        <v>110388890</v>
       </c>
       <c r="Y58">
         <v>110388890</v>
@@ -35187,6 +35496,9 @@
       <c r="F59">
         <v>10678</v>
       </c>
+      <c r="G59">
+        <v>8151</v>
+      </c>
       <c r="H59">
         <v>4063</v>
       </c>
@@ -35200,7 +35512,7 @@
         <v>6967</v>
       </c>
       <c r="L59">
-        <v>22733</v>
+        <v>6774</v>
       </c>
       <c r="M59">
         <v>8340</v>
@@ -35220,6 +35532,9 @@
       <c r="R59">
         <v>120388890</v>
       </c>
+      <c r="S59">
+        <v>113888890</v>
+      </c>
       <c r="T59">
         <v>110388890</v>
       </c>
@@ -35233,7 +35548,7 @@
         <v>90888890</v>
       </c>
       <c r="X59">
-        <v>1960897577</v>
+        <v>110388890</v>
       </c>
       <c r="Y59">
         <v>110388890</v>
@@ -35255,6 +35570,9 @@
       <c r="F60">
         <v>10585</v>
       </c>
+      <c r="G60">
+        <v>8073</v>
+      </c>
       <c r="H60">
         <v>3864</v>
       </c>
@@ -35268,7 +35586,7 @@
         <v>6844</v>
       </c>
       <c r="L60">
-        <v>22560</v>
+        <v>7066</v>
       </c>
       <c r="M60">
         <v>8411</v>
@@ -35288,6 +35606,9 @@
       <c r="R60">
         <v>120388890</v>
       </c>
+      <c r="S60">
+        <v>113888890</v>
+      </c>
       <c r="T60">
         <v>110388890</v>
       </c>
@@ -35301,7 +35622,7 @@
         <v>90888890</v>
       </c>
       <c r="X60">
-        <v>1960897574</v>
+        <v>110388890</v>
       </c>
       <c r="Y60">
         <v>110388890</v>
@@ -35366,6 +35687,9 @@
       <c r="F64">
         <v>15655</v>
       </c>
+      <c r="G64">
+        <v>20415</v>
+      </c>
       <c r="H64">
         <v>6667</v>
       </c>
@@ -35376,7 +35700,7 @@
         <v>3736</v>
       </c>
       <c r="L64">
-        <v>51561</v>
+        <v>10916</v>
       </c>
       <c r="M64">
         <v>14132</v>
@@ -35398,6 +35722,9 @@
       <c r="F65">
         <v>15390</v>
       </c>
+      <c r="G65">
+        <v>20322</v>
+      </c>
       <c r="H65">
         <v>6943</v>
       </c>
@@ -35408,7 +35735,7 @@
         <v>3634</v>
       </c>
       <c r="L65">
-        <v>51837</v>
+        <v>10791</v>
       </c>
       <c r="M65">
         <v>13844</v>
@@ -35430,6 +35757,9 @@
       <c r="F66">
         <v>15456</v>
       </c>
+      <c r="G66">
+        <v>20273</v>
+      </c>
       <c r="H66">
         <v>6763</v>
       </c>
@@ -35440,7 +35770,7 @@
         <v>3584</v>
       </c>
       <c r="L66">
-        <v>50970</v>
+        <v>11434</v>
       </c>
       <c r="M66">
         <v>14056</v>
@@ -35450,13 +35780,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <tableParts count="5">
+    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>